--- a/doc/Localization.xlsx
+++ b/doc/Localization.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E941EE-172E-4140-BF41-F62378754378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="5400" yWindow="1710" windowWidth="16200" windowHeight="10042" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图片及文字要求" sheetId="2" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,65 +35,6 @@
   </si>
   <si>
     <t>要求:Excel必须在{path}，\r\n包含localization表，\r\n单元格必须全是string类型，\r\n第一列首单元格必须是\"key\"列,其他列首单元格必须是和{nameof(XIHLanguage)}枚举内容一致(none除外),字母大小需一致，\r\n \"key\"列不许出现空，否则表示终止</t>
-  </si>
-  <si>
-    <t>key: 不能重复,小写字母下划线和数字组成，数字必须在其他字符后面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{数字}: 表示可变值，务必原封不动保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片本地化要求:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.原图片保持不变，图片名字不允许更改</t>
-  </si>
-  <si>
-    <t>2.繁体图片命名规则，参考原图片命名，将cn替换为zh_TW，作为繁体图片命名</t>
-  </si>
-  <si>
-    <t>3.英文图片命名规则，参考原图片，将cn替换为en，作为英文图片命名</t>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_ZW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片提取的文字对应翻译,自行依据图片寓意翻译:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>需将图片内文字提取翻译后再做此步骤，翻译工作交由XXX负责，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对应翻译在本表14行开始</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -121,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cur_lag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cur_lag2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,12 +125,40 @@
   <si>
     <t>當前語言為: {0},這是自动調用的，需添加LocalizationText組件</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key: 不能重复,满足C#成员命名规则，数字必须在其他字符后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{数字}: 表示可变值，务必原封不动保留，不要翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/Sprite/I18N/blue_win_cn.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Sprite/I18N/blue_win_zh_TW.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/Sprite/I18N/blue_win_en.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/Sprite/I18N/red_win_cn.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Sprite/I18N/red_win_en.png</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Sprite/I18N/red_win_zh_TW.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,9 +220,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -280,6 +233,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +317,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,6 +369,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,110 +561,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="36.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -685,90 +603,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="57.25" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="1" max="1" width="17.1328125" customWidth="1"/>
+    <col min="2" max="2" width="57.265625" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Localization.xlsx
+++ b/doc/Localization.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E941EE-172E-4140-BF41-F62378754378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B309BBC-8541-4398-83D9-DD39BE5E668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1710" windowWidth="16200" windowHeight="10042" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9983" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图片及文字要求" sheetId="2" r:id="rId1"/>
